--- a/data/trans_orig/IP3110_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3110_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F7608D-83BD-4E4A-8FCD-30E5BD6EF3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE44C5CF-F768-4A60-A15B-ADD96D4D56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{959006C6-AC82-4A0F-8543-1D7BFF7BBB15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8108242-D5A1-4A63-9B80-D205BC1E8841}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="233">
   <si>
     <t>Menores según la frecuencia de tomar patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -113,16 +113,16 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>8,87%</t>
   </si>
   <si>
     <t>2,47%</t>
@@ -131,514 +131,511 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>7,0%</t>
+    <t>6,01%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>44,56%</t>
   </si>
   <si>
     <t>41,61%</t>
@@ -647,88 +644,94 @@
     <t>38,12%</t>
   </si>
   <si>
-    <t>45,2%</t>
+    <t>44,97%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>24,41%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1143,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A86A5E-1362-4375-B7DF-66DFF74E9F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD84C15-B9BF-470E-A794-76161D8CBAD7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,7 +1840,7 @@
         <v>63</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>19</v>
@@ -1846,13 +1849,13 @@
         <v>14935</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1870,13 @@
         <v>5679</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1882,13 +1885,13 @@
         <v>4174</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1897,13 +1900,13 @@
         <v>9853</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1918,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>18</v>
@@ -1959,7 +1962,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1971,13 +1974,13 @@
         <v>24996</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -1986,13 +1989,13 @@
         <v>25649</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -2001,13 +2004,13 @@
         <v>50645</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2025,13 @@
         <v>62454</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -2037,13 +2040,13 @@
         <v>75893</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -2052,13 +2055,13 @@
         <v>138347</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2076,13 @@
         <v>199691</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -2088,13 +2091,13 @@
         <v>173778</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -2103,13 +2106,13 @@
         <v>373469</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2127,13 @@
         <v>110021</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>124</v>
@@ -2139,13 +2142,13 @@
         <v>96471</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>265</v>
@@ -2154,13 +2157,13 @@
         <v>206493</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2178,13 @@
         <v>71189</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -2190,13 +2193,13 @@
         <v>56448</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>157</v>
@@ -2205,13 +2208,13 @@
         <v>127636</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2229,13 @@
         <v>11749</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -2241,13 +2244,13 @@
         <v>9781</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -2256,13 +2259,13 @@
         <v>21530</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2321,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2330,13 +2333,13 @@
         <v>14748</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2345,13 +2348,13 @@
         <v>13155</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2360,13 +2363,13 @@
         <v>27903</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2516,13 @@
         <v>47537</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2537,13 @@
         <v>7970</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2549,13 +2552,13 @@
         <v>6934</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2564,13 +2567,13 @@
         <v>14904</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
         <v>41523</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>181</v>
@@ -2794,10 +2797,10 @@
         <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>385</v>
@@ -2806,13 +2809,13 @@
         <v>265017</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>772</v>
@@ -2821,13 +2824,13 @@
         <v>555252</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,10 +2845,10 @@
         <v>149963</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>208</v>
@@ -2980,7 +2983,7 @@
         <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3039,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
